--- a/Stage Algemeen/Planning.xlsx
+++ b/Stage Algemeen/Planning.xlsx
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Week</t>
   </si>
@@ -324,7 +324,28 @@
     <t>Kerstvakantie in Denemarken</t>
   </si>
   <si>
-    <t>Langweekend Texel</t>
+    <t>Nieuwjaar</t>
+  </si>
+  <si>
+    <t>Oudjaar</t>
+  </si>
+  <si>
+    <t>W16D5</t>
+  </si>
+  <si>
+    <t>W17D1</t>
+  </si>
+  <si>
+    <t>W17D2</t>
+  </si>
+  <si>
+    <t>W17D3</t>
+  </si>
+  <si>
+    <t>W17D4</t>
+  </si>
+  <si>
+    <t>W17D5</t>
   </si>
 </sst>
 </file>
@@ -381,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +427,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="23">
     <border>
@@ -665,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -717,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,7 +759,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -753,6 +789,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,19 +816,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,7 +837,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -810,10 +858,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1119,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,10 +1183,10 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="54"/>
+      <c r="D1" s="59"/>
       <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
@@ -1151,33 +1205,33 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="34"/>
+      <c r="H2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="34"/>
+      <c r="J2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="M2" s="34"/>
+      <c r="N2" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1189,20 +1243,20 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45" t="s">
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="47"/>
+      <c r="H3" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1225,22 +1279,22 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="48" t="s">
+      <c r="E4" s="47"/>
+      <c r="F4" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45" t="s">
+      <c r="G4" s="51"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="45"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="26" t="s">
         <v>16</v>
       </c>
@@ -1263,18 +1317,18 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="53" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="53"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="26" t="s">
         <v>13</v>
       </c>
@@ -1297,18 +1351,18 @@
       <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="48" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="48"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="26"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
@@ -1328,16 +1382,16 @@
       <c r="C7" s="12">
         <v>5</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="45"/>
-      <c r="M7" s="45"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="26" t="s">
         <v>14</v>
       </c>
@@ -1357,18 +1411,18 @@
       <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="48" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="26" t="s">
         <v>24</v>
       </c>
@@ -1388,18 +1442,18 @@
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="49" t="s">
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="50"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="55"/>
       <c r="N9" s="26" t="s">
         <v>23</v>
       </c>
@@ -1419,18 +1473,18 @@
       <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="45" t="s">
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="45"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="26"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -1448,20 +1502,20 @@
       <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45" t="s">
+      <c r="K11" s="47"/>
+      <c r="L11" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="45"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="26" t="s">
         <v>25</v>
       </c>
@@ -1481,24 +1535,24 @@
       <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="48" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48" t="s">
+      <c r="G12" s="51"/>
+      <c r="H12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="51"/>
+      <c r="J12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48" t="s">
+      <c r="K12" s="51"/>
+      <c r="L12" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="48"/>
+      <c r="M12" s="51"/>
       <c r="N12" s="26"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -1516,18 +1570,18 @@
       <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="41" t="s">
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="42"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="49"/>
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -1545,18 +1599,18 @@
       <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="41" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="42"/>
+      <c r="M14" s="49"/>
       <c r="N14" s="26" t="s">
         <v>19</v>
       </c>
@@ -1576,14 +1630,14 @@
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="31"/>
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
@@ -1670,10 +1724,10 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="M18" s="53"/>
+      <c r="M18" s="32"/>
       <c r="N18" s="26" t="s">
         <v>10</v>
       </c>
@@ -1692,16 +1746,16 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
       <c r="N19" s="26"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -1718,18 +1772,20 @@
       <c r="C20" s="3">
         <v>18</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="53" t="s">
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="29"/>
+      <c r="J20" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
       <c r="N20" s="26"/>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
@@ -1772,16 +1828,16 @@
       <c r="C22" s="14">
         <v>20</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
       <c r="N22" s="20" t="s">
         <v>32</v>
       </c>
@@ -1800,26 +1856,26 @@
       <c r="C23" s="3">
         <v>21</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="41"/>
+      <c r="F23" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40" t="s">
+      <c r="G23" s="41"/>
+      <c r="H23" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="41"/>
+      <c r="J23" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
+      <c r="K23" s="41"/>
+      <c r="L23" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="40"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="23" t="s">
         <v>33</v>
       </c>
@@ -1838,23 +1894,33 @@
       <c r="C24" s="3">
         <v>22</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="55" t="s">
+      <c r="D24" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M24" s="36"/>
+      <c r="N24" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="56"/>
-      <c r="R24" s="57"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="62"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -1866,16 +1932,18 @@
       <c r="C25" s="9">
         <v>23</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="30" t="s">
+        <v>57</v>
+      </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
       <c r="N25" s="26"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
@@ -1892,16 +1960,16 @@
       <c r="C26" s="9">
         <v>24</v>
       </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="26"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
@@ -1918,16 +1986,16 @@
       <c r="C27" s="9">
         <v>25</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
       <c r="N27" s="26"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -1944,21 +2012,21 @@
       <c r="C28" s="4">
         <v>26</v>
       </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="60"/>
-      <c r="N28" s="58"/>
-      <c r="O28" s="58"/>
-      <c r="P28" s="58"/>
-      <c r="Q28" s="58"/>
-      <c r="R28" s="59"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="68"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="162">

--- a/Stage Algemeen/Planning.xlsx
+++ b/Stage Algemeen/Planning.xlsx
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>Week</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>W17D5</t>
+  </si>
+  <si>
+    <t>Vader naar ziekenhuis, op bezoek geweest</t>
+  </si>
+  <si>
+    <t>Ziek; maag</t>
   </si>
 </sst>
 </file>
@@ -698,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -762,9 +768,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -816,21 +819,21 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -868,6 +871,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1173,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26:K26"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,10 +1192,10 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="59"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="27" t="s">
         <v>18</v>
       </c>
@@ -1205,33 +1214,33 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34" t="s">
+      <c r="E2" s="33"/>
+      <c r="F2" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34" t="s">
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34" t="s">
+      <c r="M2" s="33"/>
+      <c r="N2" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1243,20 +1252,20 @@
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47" t="s">
+      <c r="G3" s="46"/>
+      <c r="H3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="26" t="s">
         <v>12</v>
       </c>
@@ -1279,22 +1288,22 @@
       <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="51" t="s">
+      <c r="E4" s="46"/>
+      <c r="F4" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="51"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47" t="s">
+      <c r="G4" s="52"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="47"/>
+      <c r="M4" s="46"/>
       <c r="N4" s="26" t="s">
         <v>16</v>
       </c>
@@ -1317,18 +1326,18 @@
       <c r="C5" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="32" t="s">
         <v>27</v>
       </c>
       <c r="I5" s="32"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
       <c r="N5" s="26" t="s">
         <v>13</v>
       </c>
@@ -1351,18 +1360,18 @@
       <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="51" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
       <c r="N6" s="26"/>
       <c r="O6" s="27"/>
       <c r="P6" s="27"/>
@@ -1382,16 +1391,16 @@
       <c r="C7" s="12">
         <v>5</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
       <c r="N7" s="26" t="s">
         <v>14</v>
       </c>
@@ -1411,18 +1420,18 @@
       <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="51" t="s">
+      <c r="D8" s="53"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="51"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
       <c r="N8" s="26" t="s">
         <v>24</v>
       </c>
@@ -1442,18 +1451,18 @@
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="54" t="s">
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="55"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="51"/>
       <c r="N9" s="26" t="s">
         <v>23</v>
       </c>
@@ -1473,18 +1482,18 @@
       <c r="C10" s="3">
         <v>8</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47" t="s">
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="47"/>
+      <c r="M10" s="46"/>
       <c r="N10" s="26"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
@@ -1502,20 +1511,20 @@
       <c r="C11" s="3">
         <v>9</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47" t="s">
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47" t="s">
+      <c r="K11" s="46"/>
+      <c r="L11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="47"/>
+      <c r="M11" s="46"/>
       <c r="N11" s="26" t="s">
         <v>25</v>
       </c>
@@ -1535,24 +1544,24 @@
       <c r="C12" s="3">
         <v>10</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="51" t="s">
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51" t="s">
+      <c r="G12" s="52"/>
+      <c r="H12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51" t="s">
+      <c r="I12" s="52"/>
+      <c r="J12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51" t="s">
+      <c r="K12" s="52"/>
+      <c r="L12" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="51"/>
+      <c r="M12" s="52"/>
       <c r="N12" s="26"/>
       <c r="O12" s="27"/>
       <c r="P12" s="27"/>
@@ -1570,18 +1579,18 @@
       <c r="C13" s="3">
         <v>11</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="26"/>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -1599,18 +1608,18 @@
       <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="48" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="48"/>
       <c r="N14" s="26" t="s">
         <v>19</v>
       </c>
@@ -1630,18 +1639,20 @@
       <c r="C15" s="3">
         <v>13</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="51"/>
       <c r="N15" s="26" t="s">
         <v>11</v>
       </c>
@@ -1660,12 +1671,14 @@
       <c r="C16" s="3">
         <v>14</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="52"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
@@ -1696,8 +1709,8 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
       <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="69"/>
       <c r="N17" s="26" t="s">
         <v>9</v>
       </c>
@@ -1724,10 +1737,8 @@
       <c r="I18" s="31"/>
       <c r="J18" s="31"/>
       <c r="K18" s="31"/>
-      <c r="L18" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="32"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="68"/>
       <c r="N18" s="26" t="s">
         <v>10</v>
       </c>
@@ -1746,16 +1757,18 @@
       <c r="C19" s="3">
         <v>17</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
+      <c r="D19" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="48"/>
       <c r="N19" s="26"/>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -1772,15 +1785,15 @@
       <c r="C20" s="3">
         <v>18</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="43"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="29" t="s">
         <v>51</v>
       </c>
       <c r="I20" s="29"/>
-      <c r="J20" s="45" t="s">
+      <c r="J20" s="44" t="s">
         <v>50</v>
       </c>
       <c r="K20" s="29"/>
@@ -1828,16 +1841,16 @@
       <c r="C22" s="14">
         <v>20</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="39"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
       <c r="N22" s="20" t="s">
         <v>32</v>
       </c>
@@ -1856,26 +1869,26 @@
       <c r="C23" s="3">
         <v>21</v>
       </c>
-      <c r="D23" s="40" t="s">
+      <c r="D23" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41" t="s">
+      <c r="E23" s="40"/>
+      <c r="F23" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41" t="s">
+      <c r="G23" s="40"/>
+      <c r="H23" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41" t="s">
+      <c r="I23" s="40"/>
+      <c r="J23" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41" t="s">
+      <c r="K23" s="40"/>
+      <c r="L23" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="41"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="23" t="s">
         <v>33</v>
       </c>
@@ -1894,33 +1907,33 @@
       <c r="C24" s="3">
         <v>22</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36" t="s">
+      <c r="G24" s="35"/>
+      <c r="H24" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36" t="s">
+      <c r="K24" s="35"/>
+      <c r="L24" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="36"/>
-      <c r="N24" s="60" t="s">
+      <c r="M24" s="35"/>
+      <c r="N24" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="62"/>
+      <c r="O24" s="60"/>
+      <c r="P24" s="60"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="61"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -1936,14 +1949,14 @@
         <v>57</v>
       </c>
       <c r="E25" s="31"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
       <c r="N25" s="26"/>
       <c r="O25" s="27"/>
       <c r="P25" s="27"/>
@@ -1960,16 +1973,16 @@
       <c r="C26" s="9">
         <v>24</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="58"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
       <c r="N26" s="26"/>
       <c r="O26" s="27"/>
       <c r="P26" s="27"/>
@@ -1986,16 +1999,16 @@
       <c r="C27" s="9">
         <v>25</v>
       </c>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
       <c r="N27" s="26"/>
       <c r="O27" s="27"/>
       <c r="P27" s="27"/>
@@ -2012,24 +2025,24 @@
       <c r="C28" s="4">
         <v>26</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="67"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="157">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="N24:R24"/>
@@ -2123,8 +2136,7 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J15:M15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
@@ -2172,12 +2184,8 @@
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="H18:I18"/>
     <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D19:M19"/>
     <mergeCell ref="L18:M18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="L19:M19"/>
     <mergeCell ref="N22:R22"/>
     <mergeCell ref="N23:R23"/>
     <mergeCell ref="N13:R13"/>

--- a/Stage Algemeen/Planning.xlsx
+++ b/Stage Algemeen/Planning.xlsx
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
   <si>
     <t>Week</t>
   </si>
@@ -328,9 +328,6 @@
   </si>
   <si>
     <t>Oudjaar</t>
-  </si>
-  <si>
-    <t>W16D5</t>
   </si>
   <si>
     <t>W17D1</t>
@@ -408,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -439,14 +436,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -464,17 +455,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -556,56 +536,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -633,17 +563,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -700,16 +619,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -717,64 +646,62 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -783,71 +710,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -855,29 +776,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20:M20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,55 +1128,55 @@
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="52"/>
+      <c r="F2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="52"/>
+      <c r="H2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33" t="s">
+      <c r="I2" s="52"/>
+      <c r="J2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33" t="s">
+      <c r="M2" s="52"/>
+      <c r="N2" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -1249,31 +1185,31 @@
       <c r="B3" s="1">
         <v>41887</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="11">
         <v>1</v>
       </c>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46" t="s">
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="26" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="28"/>
-      <c r="T3" s="10"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="T3" s="9"/>
       <c r="U3" t="s">
         <v>29</v>
       </c>
@@ -1285,33 +1221,33 @@
       <c r="B4" s="1">
         <v>41894</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="11">
         <v>2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="46"/>
-      <c r="F4" s="52" t="s">
+      <c r="E4" s="44"/>
+      <c r="F4" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="52"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="26" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="28"/>
-      <c r="T4" s="11"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25"/>
+      <c r="T4" s="10"/>
       <c r="U4" t="s">
         <v>30</v>
       </c>
@@ -1323,29 +1259,29 @@
       <c r="B5" s="1">
         <v>41901</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="26" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="28"/>
-      <c r="T5" s="16"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25"/>
+      <c r="T5" s="14"/>
       <c r="U5" t="s">
         <v>31</v>
       </c>
@@ -1357,29 +1293,29 @@
       <c r="B6" s="1">
         <v>41908</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>4</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="52" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -1388,27 +1324,27 @@
       <c r="B7" s="1">
         <v>41915</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>5</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="26" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28"/>
-      <c r="U7" s="7"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="25"/>
+      <c r="U7" s="6"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -1417,29 +1353,29 @@
       <c r="B8" s="1">
         <v>41922</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>6</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="52" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="26" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="T8" s="7"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="T8" s="6"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -1448,29 +1384,29 @@
       <c r="B9" s="1">
         <v>41929</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="11">
         <v>7</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="50" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="26" t="s">
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="28"/>
-      <c r="U9" s="7"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="U9" s="6"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
@@ -1479,27 +1415,27 @@
       <c r="B10" s="1">
         <v>41936</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="11">
         <v>8</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="46"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="28"/>
-      <c r="U10" s="7"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="U10" s="6"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -1508,31 +1444,31 @@
       <c r="B11" s="1">
         <v>41943</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>9</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46" t="s">
+      <c r="K11" s="40"/>
+      <c r="L11" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="46"/>
-      <c r="N11" s="26" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="28"/>
-      <c r="U11" s="7"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
@@ -1541,33 +1477,33 @@
       <c r="B12" s="1">
         <v>41950</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11">
         <v>10</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="52" t="s">
+      <c r="D12" s="43"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52" t="s">
+      <c r="G12" s="49"/>
+      <c r="H12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52" t="s">
+      <c r="I12" s="49"/>
+      <c r="J12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52" t="s">
+      <c r="K12" s="49"/>
+      <c r="L12" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="M12" s="52"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="28"/>
-      <c r="T12" s="7"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+      <c r="T12" s="6"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -1576,27 +1512,27 @@
       <c r="B13" s="1">
         <v>41957</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="11">
         <v>11</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47" t="s">
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="28"/>
-      <c r="U13" s="7"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
+      <c r="U13" s="6"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
@@ -1605,29 +1541,29 @@
       <c r="B14" s="1">
         <v>41964</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="11">
         <v>12</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="47" t="s">
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="M14" s="48"/>
-      <c r="N14" s="26" t="s">
+      <c r="M14" s="46"/>
+      <c r="N14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="28"/>
-      <c r="V14" s="7"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
+      <c r="V14" s="6"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -1636,30 +1572,30 @@
       <c r="B15" s="1">
         <v>41971</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="11">
         <v>13</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="47"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="26" t="s">
+      <c r="E15" s="30"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="28"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -1668,28 +1604,28 @@
       <c r="B16" s="1">
         <v>41978</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="11">
         <v>14</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="26" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="28"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -1698,26 +1634,26 @@
       <c r="B17" s="1">
         <v>41985</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="11">
         <v>15</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="26" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="28"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -1726,26 +1662,26 @@
       <c r="B18" s="1">
         <v>41992</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <v>16</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="26" t="s">
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="O18" s="27"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="28"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -1754,26 +1690,26 @@
       <c r="B19" s="1">
         <v>41999</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="11">
         <v>17</v>
       </c>
-      <c r="D19" s="49" t="s">
+      <c r="D19" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="27"/>
-      <c r="Q19" s="27"/>
-      <c r="R19" s="28"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="25"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -1782,28 +1718,28 @@
       <c r="B20" s="1">
         <v>42006</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11">
         <v>18</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="I20" s="29"/>
-      <c r="J20" s="44" t="s">
+      <c r="I20" s="69"/>
+      <c r="J20" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="29"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -1812,52 +1748,52 @@
       <c r="B21" s="1">
         <v>42013</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="11">
         <v>19</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="27"/>
-      <c r="R21" s="28"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
     </row>
     <row r="22" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13">
+      <c r="A22" s="12">
         <v>42016</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="12">
         <v>42020</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="18">
         <v>20</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="38"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
       <c r="N22" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -1866,180 +1802,178 @@
       <c r="B23" s="1">
         <v>42027</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="11">
         <v>21</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40" t="s">
+      <c r="E23" s="27"/>
+      <c r="F23" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40" t="s">
+      <c r="G23" s="27"/>
+      <c r="H23" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="27"/>
+      <c r="J23" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
+      <c r="K23" s="27"/>
+      <c r="L23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="23" t="s">
+      <c r="M23" s="28"/>
+      <c r="N23" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="25"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="23"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>42030</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>42034</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="11">
         <v>22</v>
       </c>
-      <c r="D24" s="34" t="s">
+      <c r="D24" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35" t="s">
+      <c r="E24" s="27"/>
+      <c r="F24" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35" t="s">
+      <c r="G24" s="27"/>
+      <c r="H24" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35" t="s">
+      <c r="I24" s="27"/>
+      <c r="J24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35" t="s">
+      <c r="K24" s="27"/>
+      <c r="L24" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="M24" s="35"/>
-      <c r="N24" s="59" t="s">
+      <c r="M24" s="28"/>
+      <c r="N24" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="61"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="58"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>42037</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="7">
         <v>42041</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="19">
         <v>23</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="65"/>
-      <c r="M25" s="65"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="28"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>42044</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="7">
         <v>42048</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="8">
         <v>24</v>
       </c>
-      <c r="D26" s="66"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="27"/>
-      <c r="R26" s="28"/>
+      <c r="D26" s="67"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="51"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="25"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>42051</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B27" s="7">
         <v>42055</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="8">
         <v>25</v>
       </c>
-      <c r="D27" s="64"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="28"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="25"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="18">
+      <c r="A28" s="16">
         <v>42058</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="17">
         <v>42062</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>26</v>
       </c>
-      <c r="D28" s="66"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="67"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="63"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="157">
